--- a/Fase 2/Sprints/Sprint 1/Burndown Chart Sprint 1.xlsx
+++ b/Fase 2/Sprints/Sprint 1/Burndown Chart Sprint 1.xlsx
@@ -211,11 +211,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="919004771"/>
-        <c:axId val="991583013"/>
+        <c:axId val="469322441"/>
+        <c:axId val="1308596249"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="919004771"/>
+        <c:axId val="469322441"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -267,10 +267,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="991583013"/>
+        <c:crossAx val="1308596249"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="991583013"/>
+        <c:axId val="1308596249"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -345,7 +345,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="919004771"/>
+        <c:crossAx val="469322441"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
